--- a/nr-rm-jdv/ig/StructureDefinition-as-ext-lieu-dit.xlsx
+++ b/nr-rm-jdv/ig/StructureDefinition-as-ext-lieu-dit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:29:56+00:00</t>
+    <t>2024-11-14T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
